--- a/Desarrollo/ZP/Planificación/ZP-CP.xlsx
+++ b/Desarrollo/ZP/Planificación/ZP-CP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unmsmmail-my.sharepoint.com/personal/nicole_morales_unmsm_edu_pe/Documents/UNMSM/Ciclo 6/Gestión de la configuración del software/Proyecto/Wilson-Devs/Desarrollo/ZP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unmsmmail-my.sharepoint.com/personal/nicole_morales_unmsm_edu_pe/Documents/UNMSM/Ciclo 6/Gestión de la configuración del software/Proyecto/Wilson-Devs/Desarrollo/ZP/Planificación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{A9C7BFAB-865E-48BD-8097-07A668A299E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FACF6AC-5493-43B7-8814-CF0306ED379B}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{A9C7BFAB-865E-48BD-8097-07A668A299E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EA98C95-DD2F-44E5-9980-6F0A54F556A3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,10 +1028,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1128,6 +1124,15 @@
     <xf numFmtId="14" fontId="13" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1161,29 +1166,16 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1235,14 +1227,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Cronograma #1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
     <tableStyle name="Cronograma #1-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1254,6 +1246,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1459,8 +1455,8 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="102" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -1477,15 +1473,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1505,15 +1501,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1533,17 +1529,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1563,19 +1559,19 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="23">
         <v>4</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1595,19 +1591,19 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1627,19 +1623,19 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1659,19 +1655,19 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>44816</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1691,19 +1687,19 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>44886</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1723,15 +1719,15 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1751,27 +1747,27 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="30" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="1"/>
@@ -1793,27 +1789,27 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="33">
         <v>44816</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="33">
         <v>44816</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="34">
         <v>1</v>
       </c>
       <c r="J11" s="3"/>
@@ -1835,27 +1831,27 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="33">
         <v>44816</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="33">
         <v>44823</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="34">
         <v>1</v>
       </c>
       <c r="J12" s="3"/>
@@ -1877,27 +1873,27 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="26.4" customHeight="1" thickBot="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="33">
         <v>44816</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="33">
         <v>44823</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="34">
         <v>1</v>
       </c>
       <c r="J13" s="5"/>
@@ -1919,27 +1915,27 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="33">
         <v>44823</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="33">
         <v>44830</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="34">
         <v>1</v>
       </c>
       <c r="J14" s="3"/>
@@ -1961,27 +1957,27 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="55" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="33">
         <v>44830</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="33">
         <v>44837</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="34">
         <v>1</v>
       </c>
       <c r="J15" s="3"/>
@@ -2003,27 +1999,27 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="33">
         <v>44823</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="33">
         <v>44828</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="34">
         <v>1</v>
       </c>
       <c r="J16" s="5"/>
@@ -2045,27 +2041,27 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="33">
         <v>44823</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="33">
         <v>44830</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="34">
         <v>1</v>
       </c>
       <c r="J17" s="5"/>
@@ -2087,27 +2083,27 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="33">
         <v>44823</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="33">
         <v>44830</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="34">
         <v>1</v>
       </c>
       <c r="J18" s="5"/>
@@ -2129,27 +2125,27 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="33">
         <v>44823</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="33">
         <v>44830</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="34">
         <v>1</v>
       </c>
       <c r="J19" s="5"/>
@@ -2171,27 +2167,27 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="37" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="33">
         <v>44823</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="33">
         <v>44830</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="34">
         <v>1</v>
       </c>
       <c r="J20" s="5"/>
@@ -2213,27 +2209,27 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="33">
         <v>44823</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="33">
         <v>44830</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="34">
         <v>1</v>
       </c>
       <c r="J21" s="5"/>
@@ -2255,27 +2251,27 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="37" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="33">
         <v>44823</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="33">
         <v>44830</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="34">
         <v>1</v>
       </c>
       <c r="J22" s="5"/>
@@ -2297,27 +2293,27 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="33">
         <v>44823</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="33">
         <v>44830</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="34">
         <v>1</v>
       </c>
       <c r="J23" s="5"/>
@@ -2339,27 +2335,27 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="37" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="33">
         <v>44823</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="33">
         <v>44830</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="34">
         <v>1</v>
       </c>
       <c r="J24" s="5"/>
@@ -2381,27 +2377,27 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="37" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="33">
         <v>44823</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="33">
         <v>44831</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="34">
         <v>1</v>
       </c>
       <c r="J25" s="5"/>
@@ -2423,27 +2419,27 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="37" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="33">
         <v>44823</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="33">
         <v>44832</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="34">
         <v>1</v>
       </c>
       <c r="J26" s="5"/>
@@ -2465,27 +2461,27 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="55" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="33">
         <v>44823</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="33">
         <v>44830</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="34">
         <v>1</v>
       </c>
       <c r="J27" s="5"/>
@@ -2507,27 +2503,27 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="55" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="37" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="33">
         <v>44824</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="33">
         <v>44836</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="34">
         <v>1</v>
       </c>
       <c r="J28" s="5"/>
@@ -2549,27 +2545,27 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="55" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="37" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="33">
         <v>44823</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="33">
         <v>44836</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="34">
         <v>1</v>
       </c>
       <c r="J29" s="5"/>
@@ -2586,27 +2582,27 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="55" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="37" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="33">
         <v>44816</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="33">
         <v>44837</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="34">
         <v>1</v>
       </c>
       <c r="J30" s="5"/>
@@ -2628,25 +2624,25 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="41" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43">
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41">
         <v>44816</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="41">
         <v>44837</v>
       </c>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="42" t="s">
         <v>125</v>
       </c>
       <c r="J31" s="1"/>
@@ -2668,27 +2664,27 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="59" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="37" t="s">
+      <c r="C32" s="61"/>
+      <c r="D32" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="33">
         <v>44838</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="33">
         <v>44844</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="34">
         <v>1</v>
       </c>
       <c r="J32" s="5"/>
@@ -2710,27 +2706,27 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="37" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="33">
         <v>44838</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="33">
         <v>44844</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="34">
         <v>1</v>
       </c>
       <c r="J33" s="5"/>
@@ -2752,27 +2748,27 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="37" t="s">
+      <c r="C34" s="44"/>
+      <c r="D34" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="33">
         <v>44838</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="33">
         <v>44844</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="34">
         <v>1</v>
       </c>
       <c r="J34" s="5"/>
@@ -2794,27 +2790,27 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="55" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="37" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="33">
         <v>44845</v>
       </c>
-      <c r="H35" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I35" s="47">
+      <c r="H35" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I35" s="45">
         <v>0.5</v>
       </c>
       <c r="J35" s="5"/>
@@ -2836,27 +2832,27 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="37" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="33">
         <v>44845</v>
       </c>
-      <c r="H36" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I36" s="47">
+      <c r="H36" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I36" s="45">
         <v>0.5</v>
       </c>
       <c r="J36" s="5"/>
@@ -2878,27 +2874,27 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="37" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="33">
         <v>44852</v>
       </c>
-      <c r="H37" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I37" s="47">
+      <c r="H37" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I37" s="45">
         <v>0.5</v>
       </c>
       <c r="J37" s="5"/>
@@ -2920,27 +2916,27 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="37" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="33">
         <v>44852</v>
       </c>
-      <c r="H38" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I38" s="47">
+      <c r="H38" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I38" s="45">
         <v>0.5</v>
       </c>
       <c r="J38" s="5"/>
@@ -2962,27 +2958,27 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="37" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="33">
         <v>44858</v>
       </c>
-      <c r="H39" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I39" s="48">
+      <c r="H39" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I39" s="46">
         <v>0</v>
       </c>
       <c r="J39" s="5"/>
@@ -3004,27 +3000,27 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="55" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="37" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="33">
         <v>44838</v>
       </c>
-      <c r="H40" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I40" s="48">
+      <c r="H40" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I40" s="46">
         <v>0</v>
       </c>
       <c r="J40" s="5"/>
@@ -3046,25 +3042,25 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="41" t="s">
+      <c r="C41" s="59"/>
+      <c r="D41" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43">
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41">
         <v>44838</v>
       </c>
-      <c r="H41" s="43">
-        <v>44877</v>
-      </c>
-      <c r="I41" s="42"/>
+      <c r="H41" s="41">
+        <v>44880</v>
+      </c>
+      <c r="I41" s="40"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3084,27 +3080,27 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="55" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="37" t="s">
+      <c r="C42" s="57"/>
+      <c r="D42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H42" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I42" s="48">
+      <c r="G42" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H42" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I42" s="46">
         <v>0</v>
       </c>
       <c r="J42" s="5"/>
@@ -3126,27 +3122,27 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="55" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="37" t="s">
+      <c r="C43" s="57"/>
+      <c r="D43" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H43" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I43" s="48">
+      <c r="G43" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H43" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I43" s="46">
         <v>0</v>
       </c>
       <c r="J43" s="5"/>
@@ -3168,27 +3164,27 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="26.4" customHeight="1" thickBot="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="55" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="37" t="s">
+      <c r="C44" s="57"/>
+      <c r="D44" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H44" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I44" s="48">
+      <c r="G44" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H44" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I44" s="46">
         <v>0</v>
       </c>
       <c r="J44" s="5"/>
@@ -3210,27 +3206,27 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="37" t="s">
+      <c r="C45" s="57"/>
+      <c r="D45" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H45" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I45" s="48">
+      <c r="G45" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H45" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I45" s="46">
         <v>0</v>
       </c>
       <c r="J45" s="5"/>
@@ -3252,27 +3248,27 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="59" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="39" t="s">
+      <c r="C46" s="61"/>
+      <c r="D46" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H46" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I46" s="48">
+      <c r="G46" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H46" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I46" s="46">
         <v>0</v>
       </c>
       <c r="J46" s="5"/>
@@ -3294,27 +3290,27 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="59" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="39" t="s">
+      <c r="C47" s="61"/>
+      <c r="D47" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="65">
-        <v>44877</v>
-      </c>
-      <c r="H47" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I47" s="48">
+      <c r="G47" s="51">
+        <v>44880</v>
+      </c>
+      <c r="H47" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I47" s="46">
         <v>0</v>
       </c>
       <c r="J47" s="5"/>
@@ -3336,27 +3332,27 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="55" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="37" t="s">
+      <c r="C48" s="57"/>
+      <c r="D48" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H48" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I48" s="48">
+      <c r="G48" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H48" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I48" s="46">
         <v>0</v>
       </c>
       <c r="J48" s="5"/>
@@ -3378,27 +3374,27 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="37" t="s">
+      <c r="C49" s="57"/>
+      <c r="D49" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H49" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I49" s="48">
+      <c r="G49" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H49" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I49" s="46">
         <v>0</v>
       </c>
       <c r="J49" s="5"/>
@@ -3420,27 +3416,27 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="55" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="37" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="38" t="s">
+      <c r="F50" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H50" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I50" s="48">
+      <c r="G50" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H50" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I50" s="46">
         <v>0</v>
       </c>
       <c r="J50" s="5"/>
@@ -3462,27 +3458,27 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="55" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="37" t="s">
+      <c r="C51" s="57"/>
+      <c r="D51" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="35">
-        <v>44882</v>
-      </c>
-      <c r="H51" s="35">
+      <c r="G51" s="33">
+        <v>44883</v>
+      </c>
+      <c r="H51" s="33">
         <v>44884</v>
       </c>
-      <c r="I51" s="48">
+      <c r="I51" s="46">
         <v>0</v>
       </c>
       <c r="J51" s="5"/>
@@ -3504,27 +3500,27 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="37" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="35">
-        <v>44882</v>
-      </c>
-      <c r="H52" s="35">
+      <c r="G52" s="33">
+        <v>44883</v>
+      </c>
+      <c r="H52" s="33">
         <v>44885</v>
       </c>
-      <c r="I52" s="48">
+      <c r="I52" s="46">
         <v>0</v>
       </c>
       <c r="J52" s="5"/>
@@ -3546,27 +3542,27 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A53" s="31"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="29"/>
+      <c r="B53" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="37" t="s">
+      <c r="C53" s="57"/>
+      <c r="D53" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="35">
-        <v>44882</v>
-      </c>
-      <c r="H53" s="35">
+      <c r="G53" s="33">
+        <v>44883</v>
+      </c>
+      <c r="H53" s="33">
         <v>44885</v>
       </c>
-      <c r="I53" s="48">
+      <c r="I53" s="46">
         <v>0</v>
       </c>
       <c r="J53" s="5"/>
@@ -3588,27 +3584,27 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="31"/>
-      <c r="B54" s="55" t="s">
+      <c r="A54" s="29"/>
+      <c r="B54" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="37" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="35">
-        <v>44882</v>
-      </c>
-      <c r="H54" s="35">
+      <c r="G54" s="33">
+        <v>44883</v>
+      </c>
+      <c r="H54" s="33">
         <v>44885</v>
       </c>
-      <c r="I54" s="48">
+      <c r="I54" s="46">
         <v>0</v>
       </c>
       <c r="J54" s="5"/>
@@ -3630,27 +3626,27 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="55" t="s">
+      <c r="A55" s="29"/>
+      <c r="B55" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="37" t="s">
+      <c r="C55" s="57"/>
+      <c r="D55" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="35">
-        <v>44882</v>
-      </c>
-      <c r="H55" s="35">
+      <c r="G55" s="33">
+        <v>44883</v>
+      </c>
+      <c r="H55" s="33">
         <v>44885</v>
       </c>
-      <c r="I55" s="48">
+      <c r="I55" s="46">
         <v>0</v>
       </c>
       <c r="J55" s="5"/>
@@ -3672,25 +3668,25 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="49" t="s">
+      <c r="C56" s="63"/>
+      <c r="D56" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="51">
-        <v>44866</v>
-      </c>
-      <c r="H56" s="51">
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49">
+        <v>44880</v>
+      </c>
+      <c r="H56" s="49">
         <v>44885</v>
       </c>
-      <c r="I56" s="50"/>
+      <c r="I56" s="48"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -30479,41 +30475,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B47:C47"/>
@@ -30523,6 +30484,41 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://github.com/estiven1312/Wilson-Devs" xr:uid="{BB9B0F8C-0166-47F0-AE37-5A54C13082DB}"/>
@@ -30555,10 +30551,10 @@
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1">
       <c r="B4" s="12" t="s">

--- a/Desarrollo/ZP/Planificación/ZP-CP.xlsx
+++ b/Desarrollo/ZP/Planificación/ZP-CP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unmsmmail-my.sharepoint.com/personal/nicole_morales_unmsm_edu_pe/Documents/UNMSM/Ciclo 6/Gestión de la configuración del software/Proyecto/Wilson-Devs/Desarrollo/ZP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unmsmmail-my.sharepoint.com/personal/nicole_morales_unmsm_edu_pe/Documents/UNMSM/Ciclo 6/Gestión de la configuración del software/Proyecto/Wilson-Devs/Desarrollo/ZP/Planificación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{A9C7BFAB-865E-48BD-8097-07A668A299E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FACF6AC-5493-43B7-8814-CF0306ED379B}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{A9C7BFAB-865E-48BD-8097-07A668A299E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C6D2A15-FD78-4925-AD44-9E6B9863C693}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,10 +1028,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1128,6 +1124,15 @@
     <xf numFmtId="14" fontId="13" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1161,29 +1166,16 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1235,14 +1227,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Cronograma #1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
     <tableStyle name="Cronograma #1-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1459,8 +1451,8 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E33" zoomScale="120" zoomScaleNormal="203" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -1477,15 +1469,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1505,15 +1497,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1533,17 +1525,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1563,19 +1555,19 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="23">
         <v>4</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1595,19 +1587,19 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1627,19 +1619,19 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1659,19 +1651,19 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>44816</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1691,19 +1683,19 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>44886</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1723,15 +1715,15 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1751,27 +1743,27 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="30" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="1"/>
@@ -1793,27 +1785,27 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="33">
         <v>44816</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="33">
         <v>44816</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="34">
         <v>1</v>
       </c>
       <c r="J11" s="3"/>
@@ -1835,27 +1827,27 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="33">
         <v>44816</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="33">
         <v>44823</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="34">
         <v>1</v>
       </c>
       <c r="J12" s="3"/>
@@ -1877,27 +1869,27 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="26.4" customHeight="1" thickBot="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="33">
         <v>44816</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="33">
         <v>44823</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="34">
         <v>1</v>
       </c>
       <c r="J13" s="5"/>
@@ -1919,27 +1911,27 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="33">
         <v>44823</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="33">
         <v>44830</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="34">
         <v>1</v>
       </c>
       <c r="J14" s="3"/>
@@ -1961,27 +1953,27 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="55" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="33">
         <v>44830</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="33">
         <v>44837</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="34">
         <v>1</v>
       </c>
       <c r="J15" s="3"/>
@@ -2003,27 +1995,27 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="33">
         <v>44823</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="33">
         <v>44828</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="34">
         <v>1</v>
       </c>
       <c r="J16" s="5"/>
@@ -2045,27 +2037,27 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="33">
         <v>44823</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="33">
         <v>44830</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="34">
         <v>1</v>
       </c>
       <c r="J17" s="5"/>
@@ -2087,27 +2079,27 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="33">
         <v>44823</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="33">
         <v>44830</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="34">
         <v>1</v>
       </c>
       <c r="J18" s="5"/>
@@ -2129,27 +2121,27 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="33">
         <v>44823</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="33">
         <v>44830</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="34">
         <v>1</v>
       </c>
       <c r="J19" s="5"/>
@@ -2171,27 +2163,27 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="37" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="33">
         <v>44823</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="33">
         <v>44830</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="34">
         <v>1</v>
       </c>
       <c r="J20" s="5"/>
@@ -2213,27 +2205,27 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="33">
         <v>44823</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="33">
         <v>44830</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="34">
         <v>1</v>
       </c>
       <c r="J21" s="5"/>
@@ -2255,27 +2247,27 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="37" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="33">
         <v>44823</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="33">
         <v>44830</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="34">
         <v>1</v>
       </c>
       <c r="J22" s="5"/>
@@ -2297,27 +2289,27 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="33">
         <v>44823</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="33">
         <v>44830</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="34">
         <v>1</v>
       </c>
       <c r="J23" s="5"/>
@@ -2339,27 +2331,27 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="37" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="33">
         <v>44823</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="33">
         <v>44830</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="34">
         <v>1</v>
       </c>
       <c r="J24" s="5"/>
@@ -2381,27 +2373,27 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="37" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="33">
         <v>44823</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="33">
         <v>44831</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="34">
         <v>1</v>
       </c>
       <c r="J25" s="5"/>
@@ -2423,27 +2415,27 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="37" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="33">
         <v>44823</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="33">
         <v>44832</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="34">
         <v>1</v>
       </c>
       <c r="J26" s="5"/>
@@ -2465,27 +2457,27 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="55" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="33">
         <v>44823</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="33">
         <v>44830</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="34">
         <v>1</v>
       </c>
       <c r="J27" s="5"/>
@@ -2507,27 +2499,27 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="55" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="37" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="33">
         <v>44824</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="33">
         <v>44836</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="34">
         <v>1</v>
       </c>
       <c r="J28" s="5"/>
@@ -2549,27 +2541,27 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="55" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="37" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="33">
         <v>44823</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="33">
         <v>44836</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="34">
         <v>1</v>
       </c>
       <c r="J29" s="5"/>
@@ -2586,27 +2578,27 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="55" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="37" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="33">
         <v>44816</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="33">
         <v>44837</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="34">
         <v>1</v>
       </c>
       <c r="J30" s="5"/>
@@ -2628,25 +2620,25 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="41" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43">
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41">
         <v>44816</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="41">
         <v>44837</v>
       </c>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="42" t="s">
         <v>125</v>
       </c>
       <c r="J31" s="1"/>
@@ -2668,27 +2660,27 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="59" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="37" t="s">
+      <c r="C32" s="61"/>
+      <c r="D32" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="33">
         <v>44838</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="33">
         <v>44844</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="34">
         <v>1</v>
       </c>
       <c r="J32" s="5"/>
@@ -2710,27 +2702,27 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="37" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="33">
         <v>44838</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="33">
         <v>44844</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="34">
         <v>1</v>
       </c>
       <c r="J33" s="5"/>
@@ -2752,27 +2744,27 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="37" t="s">
+      <c r="C34" s="44"/>
+      <c r="D34" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="33">
         <v>44838</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="33">
         <v>44844</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="34">
         <v>1</v>
       </c>
       <c r="J34" s="5"/>
@@ -2794,27 +2786,27 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="55" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="37" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="33">
         <v>44845</v>
       </c>
-      <c r="H35" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I35" s="47">
+      <c r="H35" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I35" s="45">
         <v>0.5</v>
       </c>
       <c r="J35" s="5"/>
@@ -2836,27 +2828,27 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="37" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="33">
         <v>44845</v>
       </c>
-      <c r="H36" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I36" s="47">
+      <c r="H36" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I36" s="45">
         <v>0.5</v>
       </c>
       <c r="J36" s="5"/>
@@ -2878,27 +2870,27 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="37" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="33">
         <v>44852</v>
       </c>
-      <c r="H37" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I37" s="47">
+      <c r="H37" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I37" s="45">
         <v>0.5</v>
       </c>
       <c r="J37" s="5"/>
@@ -2920,27 +2912,27 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="37" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="33">
         <v>44852</v>
       </c>
-      <c r="H38" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I38" s="47">
+      <c r="H38" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I38" s="45">
         <v>0.5</v>
       </c>
       <c r="J38" s="5"/>
@@ -2962,27 +2954,27 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="37" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="33">
         <v>44858</v>
       </c>
-      <c r="H39" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I39" s="48">
+      <c r="H39" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I39" s="46">
         <v>0</v>
       </c>
       <c r="J39" s="5"/>
@@ -3004,27 +2996,27 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="55" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="37" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="33">
         <v>44838</v>
       </c>
-      <c r="H40" s="35">
-        <v>44877</v>
-      </c>
-      <c r="I40" s="48">
+      <c r="H40" s="33">
+        <v>44880</v>
+      </c>
+      <c r="I40" s="46">
         <v>0</v>
       </c>
       <c r="J40" s="5"/>
@@ -3046,25 +3038,25 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="41" t="s">
+      <c r="C41" s="59"/>
+      <c r="D41" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43">
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41">
         <v>44838</v>
       </c>
-      <c r="H41" s="43">
-        <v>44877</v>
-      </c>
-      <c r="I41" s="42"/>
+      <c r="H41" s="41">
+        <v>44880</v>
+      </c>
+      <c r="I41" s="40"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3084,27 +3076,27 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="55" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="37" t="s">
+      <c r="C42" s="57"/>
+      <c r="D42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H42" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I42" s="48">
+      <c r="G42" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H42" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I42" s="46">
         <v>0</v>
       </c>
       <c r="J42" s="5"/>
@@ -3126,27 +3118,27 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="55" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="37" t="s">
+      <c r="C43" s="57"/>
+      <c r="D43" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H43" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I43" s="48">
+      <c r="G43" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H43" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I43" s="46">
         <v>0</v>
       </c>
       <c r="J43" s="5"/>
@@ -3168,27 +3160,27 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="26.4" customHeight="1" thickBot="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="55" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="37" t="s">
+      <c r="C44" s="57"/>
+      <c r="D44" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H44" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I44" s="48">
+      <c r="G44" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H44" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I44" s="46">
         <v>0</v>
       </c>
       <c r="J44" s="5"/>
@@ -3210,27 +3202,27 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="37" t="s">
+      <c r="C45" s="57"/>
+      <c r="D45" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H45" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I45" s="48">
+      <c r="G45" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H45" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I45" s="46">
         <v>0</v>
       </c>
       <c r="J45" s="5"/>
@@ -3252,27 +3244,27 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="59" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="39" t="s">
+      <c r="C46" s="61"/>
+      <c r="D46" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H46" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I46" s="48">
+      <c r="G46" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H46" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I46" s="46">
         <v>0</v>
       </c>
       <c r="J46" s="5"/>
@@ -3294,27 +3286,27 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="59" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="39" t="s">
+      <c r="C47" s="61"/>
+      <c r="D47" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="65">
-        <v>44877</v>
-      </c>
-      <c r="H47" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I47" s="48">
+      <c r="G47" s="51">
+        <v>44880</v>
+      </c>
+      <c r="H47" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I47" s="46">
         <v>0</v>
       </c>
       <c r="J47" s="5"/>
@@ -3336,27 +3328,27 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="55" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="37" t="s">
+      <c r="C48" s="57"/>
+      <c r="D48" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H48" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I48" s="48">
+      <c r="G48" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H48" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I48" s="46">
         <v>0</v>
       </c>
       <c r="J48" s="5"/>
@@ -3378,27 +3370,27 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="37" t="s">
+      <c r="C49" s="57"/>
+      <c r="D49" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H49" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I49" s="48">
+      <c r="G49" s="51">
+        <v>44880</v>
+      </c>
+      <c r="H49" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I49" s="46">
         <v>0</v>
       </c>
       <c r="J49" s="5"/>
@@ -3420,27 +3412,27 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="55" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="37" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="38" t="s">
+      <c r="F50" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="35">
-        <v>44877</v>
-      </c>
-      <c r="H50" s="35">
-        <v>44882</v>
-      </c>
-      <c r="I50" s="48">
+      <c r="G50" s="33">
+        <v>44880</v>
+      </c>
+      <c r="H50" s="33">
+        <v>44883</v>
+      </c>
+      <c r="I50" s="46">
         <v>0</v>
       </c>
       <c r="J50" s="5"/>
@@ -3462,27 +3454,27 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="55" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="37" t="s">
+      <c r="C51" s="57"/>
+      <c r="D51" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="35">
-        <v>44882</v>
-      </c>
-      <c r="H51" s="35">
+      <c r="G51" s="33">
+        <v>44883</v>
+      </c>
+      <c r="H51" s="33">
         <v>44884</v>
       </c>
-      <c r="I51" s="48">
+      <c r="I51" s="46">
         <v>0</v>
       </c>
       <c r="J51" s="5"/>
@@ -3504,27 +3496,27 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="37" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="35">
-        <v>44882</v>
-      </c>
-      <c r="H52" s="35">
+      <c r="G52" s="33">
+        <v>44883</v>
+      </c>
+      <c r="H52" s="33">
         <v>44885</v>
       </c>
-      <c r="I52" s="48">
+      <c r="I52" s="46">
         <v>0</v>
       </c>
       <c r="J52" s="5"/>
@@ -3546,27 +3538,27 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A53" s="31"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="29"/>
+      <c r="B53" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="37" t="s">
+      <c r="C53" s="57"/>
+      <c r="D53" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="35">
-        <v>44882</v>
-      </c>
-      <c r="H53" s="35">
+      <c r="G53" s="33">
+        <v>44883</v>
+      </c>
+      <c r="H53" s="33">
         <v>44885</v>
       </c>
-      <c r="I53" s="48">
+      <c r="I53" s="46">
         <v>0</v>
       </c>
       <c r="J53" s="5"/>
@@ -3588,27 +3580,27 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="31"/>
-      <c r="B54" s="55" t="s">
+      <c r="A54" s="29"/>
+      <c r="B54" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="37" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="35">
-        <v>44882</v>
-      </c>
-      <c r="H54" s="35">
+      <c r="G54" s="33">
+        <v>44883</v>
+      </c>
+      <c r="H54" s="33">
         <v>44885</v>
       </c>
-      <c r="I54" s="48">
+      <c r="I54" s="46">
         <v>0</v>
       </c>
       <c r="J54" s="5"/>
@@ -3630,27 +3622,27 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="55" t="s">
+      <c r="A55" s="29"/>
+      <c r="B55" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="37" t="s">
+      <c r="C55" s="57"/>
+      <c r="D55" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="35">
-        <v>44882</v>
-      </c>
-      <c r="H55" s="35">
+      <c r="G55" s="33">
+        <v>44883</v>
+      </c>
+      <c r="H55" s="33">
         <v>44885</v>
       </c>
-      <c r="I55" s="48">
+      <c r="I55" s="46">
         <v>0</v>
       </c>
       <c r="J55" s="5"/>
@@ -3672,25 +3664,25 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="49" t="s">
+      <c r="C56" s="63"/>
+      <c r="D56" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="51">
-        <v>44866</v>
-      </c>
-      <c r="H56" s="51">
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49">
+        <v>44880</v>
+      </c>
+      <c r="H56" s="49">
         <v>44885</v>
       </c>
-      <c r="I56" s="50"/>
+      <c r="I56" s="48"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -30479,41 +30471,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B47:C47"/>
@@ -30523,6 +30480,41 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://github.com/estiven1312/Wilson-Devs" xr:uid="{BB9B0F8C-0166-47F0-AE37-5A54C13082DB}"/>
@@ -30555,10 +30547,10 @@
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1">
       <c r="B4" s="12" t="s">

--- a/Desarrollo/ZP/Planificación/ZP-CP.xlsx
+++ b/Desarrollo/ZP/Planificación/ZP-CP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unmsmmail-my.sharepoint.com/personal/nicole_morales_unmsm_edu_pe/Documents/UNMSM/Ciclo 6/Gestión de la configuración del software/Proyecto/Wilson-Devs/Desarrollo/ZP/Planificación/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\Repositorios\Wilson-Devs\Desarrollo\ZP\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{A9C7BFAB-865E-48BD-8097-07A668A299E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C6D2A15-FD78-4925-AD44-9E6B9863C693}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE1C59-4C71-42AF-9232-25E89B6F1ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma #1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="137">
   <si>
     <t>Grupo:</t>
   </si>
@@ -599,7 +599,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,18 +651,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,8 +967,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="64">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1008,7 +996,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,12 +1097,6 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,6 +1112,30 @@
     <xf numFmtId="14" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1141,30 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1451,21 +1433,21 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E33" zoomScale="120" zoomScaleNormal="203" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="120" zoomScaleNormal="203" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="107.6640625" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="107.7109375" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1" thickBot="1">
@@ -1526,10 +1508,10 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="21"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -1744,10 +1726,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.6" customHeight="1" thickBot="1">
       <c r="A10" s="29"/>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="30" t="s">
         <v>7</v>
       </c>
@@ -1786,10 +1768,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="29"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="31" t="s">
         <v>14</v>
       </c>
@@ -1828,10 +1810,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="29"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="31" t="s">
         <v>14</v>
       </c>
@@ -1868,12 +1850,12 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="26.4" customHeight="1" thickBot="1">
+    <row r="13" spans="1:26" ht="26.45" customHeight="1" thickBot="1">
       <c r="A13" s="29"/>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="35" t="s">
         <v>19</v>
       </c>
@@ -1912,10 +1894,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="29"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="35" t="s">
         <v>21</v>
       </c>
@@ -1954,10 +1936,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="35" t="s">
         <v>23</v>
       </c>
@@ -1996,10 +1978,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="35" t="s">
         <v>26</v>
       </c>
@@ -2038,10 +2020,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="35" t="s">
         <v>28</v>
       </c>
@@ -2080,10 +2062,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="35" t="s">
         <v>28</v>
       </c>
@@ -2122,10 +2104,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="35" t="s">
         <v>28</v>
       </c>
@@ -2164,10 +2146,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="35" t="s">
         <v>28</v>
       </c>
@@ -2206,10 +2188,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="35" t="s">
         <v>28</v>
       </c>
@@ -2248,10 +2230,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="35" t="s">
         <v>28</v>
       </c>
@@ -2290,10 +2272,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="35" t="s">
         <v>28</v>
       </c>
@@ -2332,10 +2314,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="35" t="s">
         <v>28</v>
       </c>
@@ -2374,10 +2356,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="35" t="s">
         <v>31</v>
       </c>
@@ -2416,10 +2398,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="35" t="s">
         <v>34</v>
       </c>
@@ -2458,10 +2440,10 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="37" t="s">
         <v>36</v>
       </c>
@@ -2500,10 +2482,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="29"/>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="35" t="s">
         <v>39</v>
       </c>
@@ -2542,10 +2524,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.6" customHeight="1" thickBot="1">
       <c r="A29" s="29"/>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="57"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="35" t="s">
         <v>41</v>
       </c>
@@ -2579,10 +2561,10 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="29"/>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="35" t="s">
         <v>44</v>
       </c>
@@ -2623,10 +2605,10 @@
       <c r="A31" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="39" t="s">
         <v>47</v>
       </c>
@@ -2661,10 +2643,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="29"/>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="61"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="35" t="s">
         <v>28</v>
       </c>
@@ -2703,10 +2685,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="29"/>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="35" t="s">
         <v>31</v>
       </c>
@@ -2787,10 +2769,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="29"/>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="57"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="35" t="s">
         <v>52</v>
       </c>
@@ -2806,8 +2788,8 @@
       <c r="H35" s="33">
         <v>44880</v>
       </c>
-      <c r="I35" s="45">
-        <v>0.5</v>
+      <c r="I35" s="34">
+        <v>1</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="3"/>
@@ -2848,8 +2830,8 @@
       <c r="H36" s="33">
         <v>44880</v>
       </c>
-      <c r="I36" s="45">
-        <v>0.5</v>
+      <c r="I36" s="34">
+        <v>1</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="3"/>
@@ -2890,8 +2872,8 @@
       <c r="H37" s="33">
         <v>44880</v>
       </c>
-      <c r="I37" s="45">
-        <v>0.5</v>
+      <c r="I37" s="34">
+        <v>1</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="3"/>
@@ -2932,8 +2914,8 @@
       <c r="H38" s="33">
         <v>44880</v>
       </c>
-      <c r="I38" s="45">
-        <v>0.5</v>
+      <c r="I38" s="34">
+        <v>1</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="3"/>
@@ -2955,10 +2937,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="29"/>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="57"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="35" t="s">
         <v>41</v>
       </c>
@@ -2974,8 +2956,8 @@
       <c r="H39" s="33">
         <v>44880</v>
       </c>
-      <c r="I39" s="46">
-        <v>0</v>
+      <c r="I39" s="34">
+        <v>1</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="3"/>
@@ -2997,10 +2979,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="29"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="35" t="s">
         <v>60</v>
       </c>
@@ -3016,8 +2998,8 @@
       <c r="H40" s="33">
         <v>44880</v>
       </c>
-      <c r="I40" s="46">
-        <v>0</v>
+      <c r="I40" s="34">
+        <v>1</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="3"/>
@@ -3041,10 +3023,10 @@
       <c r="A41" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="59"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="39" t="s">
         <v>63</v>
       </c>
@@ -3056,7 +3038,9 @@
       <c r="H41" s="41">
         <v>44880</v>
       </c>
-      <c r="I41" s="40"/>
+      <c r="I41" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3077,10 +3061,10 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="29"/>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="57"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="35" t="s">
         <v>58</v>
       </c>
@@ -3096,8 +3080,8 @@
       <c r="H42" s="33">
         <v>44883</v>
       </c>
-      <c r="I42" s="46">
-        <v>0</v>
+      <c r="I42" s="34">
+        <v>1</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="3"/>
@@ -3119,10 +3103,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="29"/>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="35" t="s">
         <v>56</v>
       </c>
@@ -3138,8 +3122,8 @@
       <c r="H43" s="33">
         <v>44883</v>
       </c>
-      <c r="I43" s="46">
-        <v>0</v>
+      <c r="I43" s="34">
+        <v>1</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="3"/>
@@ -3159,12 +3143,12 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="26.4" customHeight="1" thickBot="1">
+    <row r="44" spans="1:26" ht="26.45" customHeight="1" thickBot="1">
       <c r="A44" s="29"/>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="57"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="35" t="s">
         <v>58</v>
       </c>
@@ -3180,8 +3164,8 @@
       <c r="H44" s="33">
         <v>44883</v>
       </c>
-      <c r="I44" s="46">
-        <v>0</v>
+      <c r="I44" s="34">
+        <v>1</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="3"/>
@@ -3203,10 +3187,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="29"/>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="57"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="35" t="s">
         <v>28</v>
       </c>
@@ -3222,8 +3206,8 @@
       <c r="H45" s="33">
         <v>44883</v>
       </c>
-      <c r="I45" s="46">
-        <v>0</v>
+      <c r="I45" s="34">
+        <v>1</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="3"/>
@@ -3245,10 +3229,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="29"/>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="61"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="37" t="s">
         <v>31</v>
       </c>
@@ -3264,8 +3248,8 @@
       <c r="H46" s="33">
         <v>44883</v>
       </c>
-      <c r="I46" s="46">
-        <v>0</v>
+      <c r="I46" s="34">
+        <v>1</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="3"/>
@@ -3287,27 +3271,27 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="29"/>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="61"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="37" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F47" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="51">
+      <c r="G47" s="49">
         <v>44880</v>
       </c>
       <c r="H47" s="33">
         <v>44883</v>
       </c>
-      <c r="I47" s="46">
-        <v>0</v>
+      <c r="I47" s="34">
+        <v>1</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="3"/>
@@ -3329,10 +3313,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="29"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="57"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="35" t="s">
         <v>39</v>
       </c>
@@ -3348,8 +3332,8 @@
       <c r="H48" s="33">
         <v>44883</v>
       </c>
-      <c r="I48" s="46">
-        <v>0</v>
+      <c r="I48" s="34">
+        <v>1</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="3"/>
@@ -3371,10 +3355,10 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="29"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="57"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="35" t="s">
         <v>26</v>
       </c>
@@ -3384,14 +3368,14 @@
       <c r="F49" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="51">
+      <c r="G49" s="49">
         <v>44880</v>
       </c>
       <c r="H49" s="33">
         <v>44883</v>
       </c>
-      <c r="I49" s="46">
-        <v>0</v>
+      <c r="I49" s="34">
+        <v>1</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="3"/>
@@ -3413,10 +3397,10 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="29"/>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="57"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="35" t="s">
         <v>34</v>
       </c>
@@ -3432,8 +3416,8 @@
       <c r="H50" s="33">
         <v>44883</v>
       </c>
-      <c r="I50" s="46">
-        <v>0</v>
+      <c r="I50" s="34">
+        <v>1</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="3"/>
@@ -3455,10 +3439,10 @@
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A51" s="29"/>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="57"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="35" t="s">
         <v>74</v>
       </c>
@@ -3474,8 +3458,8 @@
       <c r="H51" s="33">
         <v>44884</v>
       </c>
-      <c r="I51" s="46">
-        <v>0</v>
+      <c r="I51" s="34">
+        <v>1</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="3"/>
@@ -3497,10 +3481,10 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="29"/>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="57"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="35" t="s">
         <v>76</v>
       </c>
@@ -3516,8 +3500,8 @@
       <c r="H52" s="33">
         <v>44885</v>
       </c>
-      <c r="I52" s="46">
-        <v>0</v>
+      <c r="I52" s="34">
+        <v>1</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="3"/>
@@ -3539,10 +3523,10 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="29"/>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="57"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="35" t="s">
         <v>41</v>
       </c>
@@ -3558,8 +3542,8 @@
       <c r="H53" s="33">
         <v>44885</v>
       </c>
-      <c r="I53" s="46">
-        <v>0</v>
+      <c r="I53" s="34">
+        <v>1</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="3"/>
@@ -3581,10 +3565,10 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="29"/>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="57"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="35" t="s">
         <v>77</v>
       </c>
@@ -3600,8 +3584,8 @@
       <c r="H54" s="33">
         <v>44885</v>
       </c>
-      <c r="I54" s="46">
-        <v>0</v>
+      <c r="I54" s="34">
+        <v>1</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="3"/>
@@ -3623,10 +3607,10 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A55" s="29"/>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="57"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="35" t="s">
         <v>79</v>
       </c>
@@ -3642,8 +3626,8 @@
       <c r="H55" s="33">
         <v>44885</v>
       </c>
-      <c r="I55" s="46">
-        <v>0</v>
+      <c r="I55" s="34">
+        <v>1</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="3"/>
@@ -3667,22 +3651,24 @@
       <c r="A56" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="47" t="s">
+      <c r="C56" s="53"/>
+      <c r="D56" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="49">
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47">
         <v>44880</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H56" s="47">
         <v>44885</v>
       </c>
-      <c r="I56" s="48"/>
+      <c r="I56" s="42" t="s">
+        <v>125</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -30471,6 +30457,41 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B47:C47"/>
@@ -30480,41 +30501,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://github.com/estiven1312/Wilson-Devs" xr:uid="{BB9B0F8C-0166-47F0-AE37-5A54C13082DB}"/>
@@ -30533,10 +30519,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" customHeight="1"/>
@@ -30547,10 +30533,10 @@
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1">
       <c r="B4" s="12" t="s">
